--- a/Beulah_Heights_University_Organizations.xlsx
+++ b/Beulah_Heights_University_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,49 +480,44 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Student Life</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>General</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Student Life</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -540,52 +534,54 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Religious</t>
+          <t>Student Groups</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Student Life Events</t>
+          <t>Cultural</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://beulah.edu/2022-2023-presidents-annual-report/</t>
+          <t>https://beulah.edu/student-life/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>data:image/svg+xml,%3Csvg%20xmlns='http://www.w3.org/2000/svg'%20viewBox='0%200%201100%20192'%3E%3C/svg%3E</t>
+          <t>data:image/svg+xml,%3Csvg%20xmlns='http://www.w3.org/2000/svg'%20viewBox='0%200%202048%201365'%3E%3C/svg%3E</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The Office for Student Life is located in the rear of the Samuel R. Chand Auditorium (Chapel).</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>The Student Government Association of Beulah Heights University functions according to its Constitution and By-laws.  Every spring semester the current SGA and the Office of Student Life and Enrollment Management facilitate nominations, campaigning and elections for those interested in becoming involved.  Currently, there is an SGA President, Vice-President, Secretary/Treasurer, Junior Class representative, and Sophomore Class representative; all of whom were chosen by the students.  In addition to responsibilities outlined in the by-laws, the SGA coordinates submitting welcome letters to new students every semester, the annual International Day [which consist of a chapel service followed by an international potluck and fellowship], the annual Spring Banquet for students, faculty and staff</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>studentsuccess@beulah.edu</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cultural</t>
+          <t>Life in Atlanta</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Student Groups</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -593,98 +589,57 @@
           <t>https://beulah.edu/student-life/</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>data:image/svg+xml,%3Csvg%20xmlns='http://www.w3.org/2000/svg'%20viewBox='0%200%202048%201365'%3E%3C/svg%3E</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The Student Government Association of Beulah Heights University functions according to its Constitution and By-laws.  Every spring semester the current SGA and the Office of Student Life and Enrollment Management facilitate nominations, campaigning and elections for those interested in becoming involved.  Currently, there is an SGA President, Vice-President, Secretary/Treasurer, Junior Class representative, and Sophomore Class representative; all of whom were chosen by the students.  In addition to responsibilities outlined in the by-laws, the SGA coordinates submitting welcome letters to new students every semester, the annual International Day [which consist of a chapel service followed by an international potluck and fellowship], the annual Spring Banquet for students, faculty and staff</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>studentsuccess@beulah.edu</t>
-        </is>
-      </c>
+          <t>Beulah Heights main campus is located in the Grant Park area of Atlanta. This exciting area has so much to do and explore!</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Faculty Portal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>General</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Life in Atlanta</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://beulah.edu/student-life/</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>https://brightspace.beulah.edu/d2l/login</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>data:image/svg+xml,%3Csvg%20xmlns='http://www.w3.org/2000/svg'%20viewBox='0%200%20500%20409'%3E%3C/svg%3E</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Beulah Heights main campus is located in the Grant Park area of Atlanta. This exciting area has so much to do and explore!</t>
+          <t>P.O. Box 18145892 Berne St, S.E.Atlanta, GA 30316Tel: 404-627-2681</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>404-627-2681</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Faculty Portal</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://brightspace.beulah.edu/d2l/login</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>data:image/svg+xml,%3Csvg%20xmlns='http://www.w3.org/2000/svg'%20viewBox='0%200%20500%20409'%3E%3C/svg%3E</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>P.O. Box 18145892 Berne St, S.E.Atlanta, GA 30316Tel: 404-627-2681</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>404-627-2681</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Beulah_Heights_University_Organizations.xlsx
+++ b/Beulah_Heights_University_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
     <col width="42" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Student Life</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -534,16 +540,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Student Groups</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cultural</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -572,16 +579,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Life in Atlanta</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,16 +610,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Faculty Portal</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -640,6 +649,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Beulah_Heights_University_Organizations.xlsx
+++ b/Beulah_Heights_University_Organizations.xlsx
@@ -439,12 +439,12 @@
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="43" customWidth="1" min="8" max="8"/>
+    <col width="37" customWidth="1" min="9" max="9"/>
+    <col width="36" customWidth="1" min="10" max="10"/>
+    <col width="33" customWidth="1" min="11" max="11"/>
+    <col width="43" customWidth="1" min="12" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -531,14 +531,38 @@
           <t>https://beulah.edu/student-life/</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://beulah.edu/logos/studentlife_logo.png</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Life welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>studentlife@beulah.edu</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentlife</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentlife</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
@@ -575,8 +599,16 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentgroups</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentgroups</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -603,13 +635,29 @@
           <t>Beulah Heights main campus is located in the Grant Park area of Atlanta. This exciting area has so much to do and explore!</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lifeinatlanta@beulah.edu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://facebook.com/lifeinatlanta</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/lifeinatlanta</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -638,13 +686,21 @@
           <t>P.O. Box 18145892 Berne St, S.E.Atlanta, GA 30316Tel: 404-627-2681</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>facultyportal@beulah.edu</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>404-627-2681</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/facultyportal</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
